--- a/assets/formDoc/TRGS_template.xlsx
+++ b/assets/formDoc/TRGS_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\gahk-web\assets\formDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE97A1D-6DA3-4937-810B-74CAC27C9361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1A0E3-7439-4B80-BF26-6CF3F358FBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>申請表編號 Application Number</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>隊伍/團體狀況 Team Status</t>
+  </si>
+  <si>
+    <t>比賽年份 Year of Competition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,118 +519,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -635,7 +642,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AI1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:AJ1 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>